--- a/publication/web-root/matchsync/ValueSet-loinc-cmv-codes.xlsx
+++ b/publication/web-root/matchsync/ValueSet-loinc-cmv-codes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>LOINC CMV group Value Set</t>
+    <t>ValueSet - CMV Group - LOINC</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:31:42-06:00</t>
+    <t>2025-04-16T10:37:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
